--- a/artfynd/Mittiliden artfynd.xlsx
+++ b/artfynd/Mittiliden artfynd.xlsx
@@ -413,14 +413,6292 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:AY58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Taxonsorteringsordning</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Valideringsstatus</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Rödlistade</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>TaxonId</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Artnamn</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Vetenskapligt namn</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Auktor</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Antal</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Enhet</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Ålder-Stadium</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Kön</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Aktivitet</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Metod</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Huvudlokal</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Lokalnamn</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Ost</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Nord</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Noggrannhet</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Län</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Kommun</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Provins</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Socken</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Externid</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Startdatum</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Starttid</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Slutdatum</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Sluttid</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>Publik kommentar</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>Ej återfunnen</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>Osäker artbestämning</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>Bestämningsmetod</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>Ospontan</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>Biotop</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>Biotop-beskrivning</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>Substratnamn</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>Vetenskapligt Substratnamn</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>Art som substrat beskrivning</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>Substrat</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>Antal substrat</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>Substrat-beskrivning</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>Offentlig samling</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>Privat samling</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>Samlings-nummer</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>Artbestämd av</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>Bestämningsår</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>Bekräftad av</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>Bekräftelseår</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>Rapportör</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>Observatörer</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>Projektnamn</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>111195699</v>
+      </c>
+      <c r="B2" t="n">
+        <v>90522</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>688500</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7253150</v>
+      </c>
+      <c r="S2" t="n">
+        <v>15</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>111195543</v>
+      </c>
+      <c r="B3" t="n">
+        <v>74596</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6440</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Vitgrynig nållav</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Chaenotheca subroscida</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>688896</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7253078</v>
+      </c>
+      <c r="S3" t="n">
+        <v>15</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>111195545</v>
+      </c>
+      <c r="B4" t="n">
+        <v>74596</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>6440</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vitgrynig nållav</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Chaenotheca subroscida</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>688538</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7253127</v>
+      </c>
+      <c r="S4" t="n">
+        <v>15</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>111195629</v>
+      </c>
+      <c r="B5" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>688468</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7252978</v>
+      </c>
+      <c r="S5" t="n">
+        <v>15</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>skalad bark</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>111195562</v>
+      </c>
+      <c r="B6" t="n">
+        <v>95394</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>53</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vedtrappmossa</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Crossocalyx hellerianus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>688500</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7253150</v>
+      </c>
+      <c r="S6" t="n">
+        <v>15</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>111195541</v>
+      </c>
+      <c r="B7" t="n">
+        <v>74596</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>6440</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vitgrynig nållav</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Chaenotheca subroscida</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>688820</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7252562</v>
+      </c>
+      <c r="S7" t="n">
+        <v>15</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>111195691</v>
+      </c>
+      <c r="B8" t="n">
+        <v>90522</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>688627</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7252969</v>
+      </c>
+      <c r="S8" t="n">
+        <v>15</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>111195702</v>
+      </c>
+      <c r="B9" t="n">
+        <v>90522</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>689082</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7253382</v>
+      </c>
+      <c r="S9" t="n">
+        <v>15</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>111195721</v>
+      </c>
+      <c r="B10" t="n">
+        <v>78484</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>688753</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7253127</v>
+      </c>
+      <c r="S10" t="n">
+        <v>15</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>111195667</v>
+      </c>
+      <c r="B11" t="n">
+        <v>90788</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>658</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>688456</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7253143</v>
+      </c>
+      <c r="S11" t="n">
+        <v>15</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>111195605</v>
+      </c>
+      <c r="B12" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>688958</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7253076</v>
+      </c>
+      <c r="S12" t="n">
+        <v>15</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>111195660</v>
+      </c>
+      <c r="B13" t="n">
+        <v>97867</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>221952</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Spindelblomster</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Neottia cordata</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>688890</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7253094</v>
+      </c>
+      <c r="S13" t="n">
+        <v>15</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>111195561</v>
+      </c>
+      <c r="B14" t="n">
+        <v>95394</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>53</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Vedtrappmossa</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Crossocalyx hellerianus</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>688699</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7253144</v>
+      </c>
+      <c r="S14" t="n">
+        <v>15</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>111195700</v>
+      </c>
+      <c r="B15" t="n">
+        <v>90522</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>688463</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7253149</v>
+      </c>
+      <c r="S15" t="n">
+        <v>15</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>111195716</v>
+      </c>
+      <c r="B16" t="n">
+        <v>78484</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>688779</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7252691</v>
+      </c>
+      <c r="S16" t="n">
+        <v>15</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>111195715</v>
+      </c>
+      <c r="B17" t="n">
+        <v>78484</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>688857</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7252916</v>
+      </c>
+      <c r="S17" t="n">
+        <v>15</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>111195681</v>
+      </c>
+      <c r="B18" t="n">
+        <v>78220</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>6446</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Carbonicola anthracophila</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>688727</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7253080</v>
+      </c>
+      <c r="S18" t="n">
+        <v>15</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>111195542</v>
+      </c>
+      <c r="B19" t="n">
+        <v>74596</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>6440</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Vitgrynig nållav</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Chaenotheca subroscida</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>688910</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7253039</v>
+      </c>
+      <c r="S19" t="n">
+        <v>15</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>111195604</v>
+      </c>
+      <c r="B20" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>688828</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7253029</v>
+      </c>
+      <c r="S20" t="n">
+        <v>15</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>111195669</v>
+      </c>
+      <c r="B21" t="n">
+        <v>96807</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>221941</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Plattlummer</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Lycopodium complanatum</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>688498</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7252975</v>
+      </c>
+      <c r="S21" t="n">
+        <v>15</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>111195745</v>
+      </c>
+      <c r="B22" t="n">
+        <v>78129</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>353</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Dvärgbägarlav</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Cladonia parasitica</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Hoffm.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>688530</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7252657</v>
+      </c>
+      <c r="S22" t="n">
+        <v>15</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>111195719</v>
+      </c>
+      <c r="B23" t="n">
+        <v>78484</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>688907</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7253040</v>
+      </c>
+      <c r="S23" t="n">
+        <v>15</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>111195606</v>
+      </c>
+      <c r="B24" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>688915</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7253109</v>
+      </c>
+      <c r="S24" t="n">
+        <v>15</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>111195595</v>
+      </c>
+      <c r="B25" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>688508</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7253114</v>
+      </c>
+      <c r="S25" t="n">
+        <v>15</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>111195607</v>
+      </c>
+      <c r="B26" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>688558</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7253110</v>
+      </c>
+      <c r="S26" t="n">
+        <v>15</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>111195697</v>
+      </c>
+      <c r="B27" t="n">
+        <v>90522</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>688948</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7253090</v>
+      </c>
+      <c r="S27" t="n">
+        <v>15</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>111195603</v>
+      </c>
+      <c r="B28" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>688760</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7253069</v>
+      </c>
+      <c r="S28" t="n">
+        <v>15</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>111195670</v>
+      </c>
+      <c r="B29" t="n">
+        <v>96807</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>221941</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Plattlummer</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Lycopodium complanatum</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>688645</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7253097</v>
+      </c>
+      <c r="S29" t="n">
+        <v>15</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>111195658</v>
+      </c>
+      <c r="B30" t="n">
+        <v>97867</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>221952</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Spindelblomster</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Neottia cordata</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>688803</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7252747</v>
+      </c>
+      <c r="S30" t="n">
+        <v>15</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>111195544</v>
+      </c>
+      <c r="B31" t="n">
+        <v>74596</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>6440</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Vitgrynig nållav</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Chaenotheca subroscida</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>688706</v>
+      </c>
+      <c r="R31" t="n">
+        <v>7253124</v>
+      </c>
+      <c r="S31" t="n">
+        <v>15</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>111195694</v>
+      </c>
+      <c r="B32" t="n">
+        <v>90522</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>688351</v>
+      </c>
+      <c r="R32" t="n">
+        <v>7253066</v>
+      </c>
+      <c r="S32" t="n">
+        <v>15</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>111195695</v>
+      </c>
+      <c r="B33" t="n">
+        <v>90522</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>688727</v>
+      </c>
+      <c r="R33" t="n">
+        <v>7253088</v>
+      </c>
+      <c r="S33" t="n">
+        <v>15</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>111195714</v>
+      </c>
+      <c r="B34" t="n">
+        <v>78484</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>688668</v>
+      </c>
+      <c r="R34" t="n">
+        <v>7252969</v>
+      </c>
+      <c r="S34" t="n">
+        <v>15</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>111195713</v>
+      </c>
+      <c r="B35" t="n">
+        <v>78484</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>688598</v>
+      </c>
+      <c r="R35" t="n">
+        <v>7252959</v>
+      </c>
+      <c r="S35" t="n">
+        <v>15</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>111195598</v>
+      </c>
+      <c r="B36" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>688692</v>
+      </c>
+      <c r="R36" t="n">
+        <v>7252600</v>
+      </c>
+      <c r="S36" t="n">
+        <v>15</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>111195597</v>
+      </c>
+      <c r="B37" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>688798</v>
+      </c>
+      <c r="R37" t="n">
+        <v>7252575</v>
+      </c>
+      <c r="S37" t="n">
+        <v>15</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>111195650</v>
+      </c>
+      <c r="B38" t="n">
+        <v>57443</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>obs i häcktid, lämplig biotop</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>688375</v>
+      </c>
+      <c r="R38" t="n">
+        <v>7253137</v>
+      </c>
+      <c r="S38" t="n">
+        <v>15</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>111195692</v>
+      </c>
+      <c r="B39" t="n">
+        <v>90522</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>688795</v>
+      </c>
+      <c r="R39" t="n">
+        <v>7252659</v>
+      </c>
+      <c r="S39" t="n">
+        <v>15</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>111195717</v>
+      </c>
+      <c r="B40" t="n">
+        <v>78484</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>688701</v>
+      </c>
+      <c r="R40" t="n">
+        <v>7252648</v>
+      </c>
+      <c r="S40" t="n">
+        <v>15</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>111195632</v>
+      </c>
+      <c r="B41" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>688472</v>
+      </c>
+      <c r="R41" t="n">
+        <v>7253096</v>
+      </c>
+      <c r="S41" t="n">
+        <v>15</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>111195663</v>
+      </c>
+      <c r="B42" t="n">
+        <v>57306</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>688985</v>
+      </c>
+      <c r="R42" t="n">
+        <v>7253085</v>
+      </c>
+      <c r="S42" t="n">
+        <v>15</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>hål efter födosök efter hästmyror i granstubbe</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>111195720</v>
+      </c>
+      <c r="B43" t="n">
+        <v>78484</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>688895</v>
+      </c>
+      <c r="R43" t="n">
+        <v>7253091</v>
+      </c>
+      <c r="S43" t="n">
+        <v>15</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>111195659</v>
+      </c>
+      <c r="B44" t="n">
+        <v>97867</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>221952</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Spindelblomster</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Neottia cordata</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>688955</v>
+      </c>
+      <c r="R44" t="n">
+        <v>7253080</v>
+      </c>
+      <c r="S44" t="n">
+        <v>15</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>111195627</v>
+      </c>
+      <c r="B45" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>688673</v>
+      </c>
+      <c r="R45" t="n">
+        <v>7252973</v>
+      </c>
+      <c r="S45" t="n">
+        <v>15</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>skalad bark</t>
+        </is>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>111195718</v>
+      </c>
+      <c r="B46" t="n">
+        <v>78484</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>688579</v>
+      </c>
+      <c r="R46" t="n">
+        <v>7252666</v>
+      </c>
+      <c r="S46" t="n">
+        <v>15</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>111195602</v>
+      </c>
+      <c r="B47" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>688526</v>
+      </c>
+      <c r="R47" t="n">
+        <v>7252996</v>
+      </c>
+      <c r="S47" t="n">
+        <v>15</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>111195537</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5186</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>105930</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Semanotus undatus</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>688916</v>
+      </c>
+      <c r="R48" t="n">
+        <v>7253078</v>
+      </c>
+      <c r="S48" t="n">
+        <v>15</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>111195600</v>
+      </c>
+      <c r="B49" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>688533</v>
+      </c>
+      <c r="R49" t="n">
+        <v>7252630</v>
+      </c>
+      <c r="S49" t="n">
+        <v>15</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>111195698</v>
+      </c>
+      <c r="B50" t="n">
+        <v>90522</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>688501</v>
+      </c>
+      <c r="R50" t="n">
+        <v>7253110</v>
+      </c>
+      <c r="S50" t="n">
+        <v>15</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>111195696</v>
+      </c>
+      <c r="B51" t="n">
+        <v>90522</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>688993</v>
+      </c>
+      <c r="R51" t="n">
+        <v>7253049</v>
+      </c>
+      <c r="S51" t="n">
+        <v>15</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX51" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>111195571</v>
+      </c>
+      <c r="B52" t="n">
+        <v>90469</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>688682</v>
+      </c>
+      <c r="R52" t="n">
+        <v>7253089</v>
+      </c>
+      <c r="S52" t="n">
+        <v>15</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>111195590</v>
+      </c>
+      <c r="B53" t="n">
+        <v>90504</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>688984</v>
+      </c>
+      <c r="R53" t="n">
+        <v>7253054</v>
+      </c>
+      <c r="S53" t="n">
+        <v>15</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>111195608</v>
+      </c>
+      <c r="B54" t="n">
+        <v>57290</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>688502</v>
+      </c>
+      <c r="R54" t="n">
+        <v>7253133</v>
+      </c>
+      <c r="S54" t="n">
+        <v>15</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>111195540</v>
+      </c>
+      <c r="B55" t="n">
+        <v>74596</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>6440</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Vitgrynig nållav</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Chaenotheca subroscida</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>688811</v>
+      </c>
+      <c r="R55" t="n">
+        <v>7252620</v>
+      </c>
+      <c r="S55" t="n">
+        <v>15</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>111195712</v>
+      </c>
+      <c r="B56" t="n">
+        <v>78484</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>688738</v>
+      </c>
+      <c r="R56" t="n">
+        <v>7253074</v>
+      </c>
+      <c r="S56" t="n">
+        <v>15</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>111195751</v>
+      </c>
+      <c r="B57" t="n">
+        <v>86820</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>510</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Doftskinn</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Cystostereum murrayi</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>688531</v>
+      </c>
+      <c r="R57" t="n">
+        <v>7252965</v>
+      </c>
+      <c r="S57" t="n">
+        <v>15</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>111195722</v>
+      </c>
+      <c r="B58" t="n">
+        <v>78484</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Rönnliden NV, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>688446</v>
+      </c>
+      <c r="R58" t="n">
+        <v>7253126</v>
+      </c>
+      <c r="S58" t="n">
+        <v>15</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>